--- a/example/tab/lipmuscl.xlsx
+++ b/example/tab/lipmuscl.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gravimetry" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GravimetryAnalysis" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -267,12 +267,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
